--- a/data/Math_89_Ploomber.xlsx
+++ b/data/Math_89_Ploomber.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId1" sheetId="1" name="B1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -135,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,12 +153,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -216,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,7 +218,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -233,19 +227,16 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -556,10 +547,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -656,7 +647,7 @@
       <c r="C7" s="4">
         <v>28</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <f>ROUND(C7/35*100,2)</f>
       </c>
     </row>
@@ -810,7 +801,7 @@
       <c r="C18" s="4">
         <v>21</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <f>ROUND(C18/35*100,2)</f>
       </c>
     </row>
@@ -950,7 +941,7 @@
       <c r="C28" s="4">
         <v>14</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="4">
         <f>ROUND(C28/35*100,2)</f>
       </c>
     </row>
@@ -964,7 +955,7 @@
       <c r="C29" s="4">
         <v>14</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="4">
         <f>ROUND(C29/35*100,2)</f>
       </c>
     </row>

--- a/data/Math_89_Ploomber.xlsx
+++ b/data/Math_89_Ploomber.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\External Shiz\Programming\Grade Shower\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDB0AD4-0E6D-4D14-9D25-1045A9536EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="B1"/>
+    <sheet name="B1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -133,8 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,43 +227,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -258,10 +275,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -299,71 +316,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,7 +408,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -414,11 +431,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -427,13 +444,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -443,7 +460,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -452,7 +469,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -461,7 +478,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -469,10 +486,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -537,23 +554,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>73424</v>
       </c>
@@ -577,11 +596,11 @@
       <c r="C2" s="4">
         <v>32</v>
       </c>
-      <c r="D2" s="6">
-        <f>ROUND(C2/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="D2" s="9">
+        <v>91.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>60401</v>
       </c>
@@ -591,11 +610,11 @@
       <c r="C3" s="4">
         <v>31</v>
       </c>
-      <c r="D3" s="6">
-        <f>ROUND(C3/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="D3" s="9">
+        <v>88.57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>53910</v>
       </c>
@@ -605,11 +624,11 @@
       <c r="C4" s="4">
         <v>30</v>
       </c>
-      <c r="D4" s="6">
-        <f>ROUND(C4/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="D4" s="9">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>62340</v>
       </c>
@@ -619,11 +638,11 @@
       <c r="C5" s="4">
         <v>30</v>
       </c>
-      <c r="D5" s="6">
-        <f>ROUND(C5/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="D5" s="9">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>72819</v>
       </c>
@@ -633,11 +652,11 @@
       <c r="C6" s="4">
         <v>30</v>
       </c>
-      <c r="D6" s="6">
-        <f>ROUND(C6/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="D6" s="9">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>58668</v>
       </c>
@@ -647,11 +666,11 @@
       <c r="C7" s="4">
         <v>28</v>
       </c>
-      <c r="D7" s="4">
-        <f>ROUND(C7/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="D7" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>69817</v>
       </c>
@@ -661,11 +680,11 @@
       <c r="C8" s="4">
         <v>27</v>
       </c>
-      <c r="D8" s="6">
-        <f>ROUND(C8/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="D8" s="9">
+        <v>77.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>54071</v>
       </c>
@@ -675,11 +694,11 @@
       <c r="C9" s="4">
         <v>26</v>
       </c>
-      <c r="D9" s="6">
-        <f>ROUND(C9/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="D9" s="9">
+        <v>74.290000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>73426</v>
       </c>
@@ -689,11 +708,11 @@
       <c r="C10" s="4">
         <v>26</v>
       </c>
-      <c r="D10" s="6">
-        <f>ROUND(C10/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="D10" s="9">
+        <v>74.290000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>56701</v>
       </c>
@@ -703,11 +722,11 @@
       <c r="C11" s="4">
         <v>25</v>
       </c>
-      <c r="D11" s="6">
-        <f>ROUND(C11/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="D11" s="9">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>72080</v>
       </c>
@@ -717,11 +736,11 @@
       <c r="C12" s="4">
         <v>25</v>
       </c>
-      <c r="D12" s="6">
-        <f>ROUND(C12/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="D12" s="9">
+        <v>71.430000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>49785</v>
       </c>
@@ -731,11 +750,11 @@
       <c r="C13" s="4">
         <v>24</v>
       </c>
-      <c r="D13" s="6">
-        <f>ROUND(C13/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="D13" s="9">
+        <v>68.569999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>50679</v>
       </c>
@@ -745,11 +764,11 @@
       <c r="C14" s="4">
         <v>24</v>
       </c>
-      <c r="D14" s="6">
-        <f>ROUND(C14/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="D14" s="9">
+        <v>68.569999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>63835</v>
       </c>
@@ -759,11 +778,11 @@
       <c r="C15" s="4">
         <v>24</v>
       </c>
-      <c r="D15" s="6">
-        <f>ROUND(C15/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="D15" s="9">
+        <v>68.569999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>67869</v>
       </c>
@@ -773,11 +792,11 @@
       <c r="C16" s="4">
         <v>24</v>
       </c>
-      <c r="D16" s="6">
-        <f>ROUND(C16/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="D16" s="9">
+        <v>68.569999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>28475</v>
       </c>
@@ -787,11 +806,11 @@
       <c r="C17" s="4">
         <v>23</v>
       </c>
-      <c r="D17" s="6">
-        <f>ROUND(C17/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="D17" s="9">
+        <v>65.709999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>28550</v>
       </c>
@@ -801,11 +820,11 @@
       <c r="C18" s="4">
         <v>21</v>
       </c>
-      <c r="D18" s="4">
-        <f>ROUND(C18/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="D18" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>50897</v>
       </c>
@@ -815,11 +834,11 @@
       <c r="C19" s="4">
         <v>20</v>
       </c>
-      <c r="D19" s="6">
-        <f>ROUND(C19/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="D19" s="9">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>60337</v>
       </c>
@@ -829,11 +848,11 @@
       <c r="C20" s="4">
         <v>20</v>
       </c>
-      <c r="D20" s="6">
-        <f>ROUND(C20/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="D20" s="9">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>69305</v>
       </c>
@@ -843,11 +862,11 @@
       <c r="C21" s="4">
         <v>20</v>
       </c>
-      <c r="D21" s="6">
-        <f>ROUND(C21/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="D21" s="9">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>70018</v>
       </c>
@@ -857,11 +876,11 @@
       <c r="C22" s="4">
         <v>20</v>
       </c>
-      <c r="D22" s="6">
-        <f>ROUND(C22/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="D22" s="9">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>70289</v>
       </c>
@@ -871,11 +890,11 @@
       <c r="C23" s="4">
         <v>20</v>
       </c>
-      <c r="D23" s="6">
-        <f>ROUND(C23/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="D23" s="9">
+        <v>57.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>50736</v>
       </c>
@@ -885,11 +904,11 @@
       <c r="C24" s="4">
         <v>18</v>
       </c>
-      <c r="D24" s="6">
-        <f>ROUND(C24/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="D24" s="9">
+        <v>51.43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>69416</v>
       </c>
@@ -899,11 +918,11 @@
       <c r="C25" s="4">
         <v>17</v>
       </c>
-      <c r="D25" s="6">
-        <f>ROUND(C25/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="D25" s="9">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>65447</v>
       </c>
@@ -913,11 +932,11 @@
       <c r="C26" s="4">
         <v>16</v>
       </c>
-      <c r="D26" s="6">
-        <f>ROUND(C26/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="D26" s="9">
+        <v>45.71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>67883</v>
       </c>
@@ -927,11 +946,11 @@
       <c r="C27" s="4">
         <v>16</v>
       </c>
-      <c r="D27" s="6">
-        <f>ROUND(C27/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="D27" s="9">
+        <v>45.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27895</v>
       </c>
@@ -941,11 +960,11 @@
       <c r="C28" s="4">
         <v>14</v>
       </c>
-      <c r="D28" s="4">
-        <f>ROUND(C28/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="D28" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>63955</v>
       </c>
@@ -955,11 +974,11 @@
       <c r="C29" s="4">
         <v>14</v>
       </c>
-      <c r="D29" s="4">
-        <f>ROUND(C29/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="D29" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>17966</v>
       </c>
@@ -969,11 +988,11 @@
       <c r="C30" s="4">
         <v>13</v>
       </c>
-      <c r="D30" s="6">
-        <f>ROUND(C30/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="D30" s="9">
+        <v>37.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>62258</v>
       </c>
@@ -983,11 +1002,11 @@
       <c r="C31" s="4">
         <v>13</v>
       </c>
-      <c r="D31" s="6">
-        <f>ROUND(C31/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="D31" s="9">
+        <v>37.14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>62896</v>
       </c>
@@ -997,11 +1016,11 @@
       <c r="C32" s="4">
         <v>13</v>
       </c>
-      <c r="D32" s="6">
-        <f>ROUND(C32/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="D32" s="9">
+        <v>37.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>63306</v>
       </c>
@@ -1011,11 +1030,11 @@
       <c r="C33" s="4">
         <v>13</v>
       </c>
-      <c r="D33" s="6">
-        <f>ROUND(C33/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="D33" s="9">
+        <v>37.14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>73235</v>
       </c>
@@ -1025,11 +1044,11 @@
       <c r="C34" s="4">
         <v>13</v>
       </c>
-      <c r="D34" s="6">
-        <f>ROUND(C34/35*100,2)</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="D34" s="9">
+        <v>37.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>70392</v>
       </c>
@@ -1039,8 +1058,8 @@
       <c r="C35" s="4">
         <v>12</v>
       </c>
-      <c r="D35" s="6">
-        <f>ROUND(C35/35*100,2)</f>
+      <c r="D35" s="9">
+        <v>34.29</v>
       </c>
     </row>
   </sheetData>
